--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H2">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I2">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J2">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>0.1376626523</v>
+        <v>0.603017977144</v>
       </c>
       <c r="R2">
-        <v>1.2389638707</v>
+        <v>5.427161794296</v>
       </c>
       <c r="S2">
-        <v>0.003082032329453519</v>
+        <v>0.01186020035116978</v>
       </c>
       <c r="T2">
-        <v>0.003082032329453519</v>
+        <v>0.01186020035116978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H3">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I3">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J3">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>3.012466569077777</v>
+        <v>6.252112213270001</v>
       </c>
       <c r="R3">
-        <v>27.1121991217</v>
+        <v>56.26900991943</v>
       </c>
       <c r="S3">
-        <v>0.06744399589993687</v>
+        <v>0.1229669865209847</v>
       </c>
       <c r="T3">
-        <v>0.06744399589993687</v>
+        <v>0.1229669865209847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H4">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I4">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J4">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>1.952955178235555</v>
+        <v>5.071312357441</v>
       </c>
       <c r="R4">
-        <v>17.57659660412</v>
+        <v>45.641811216969</v>
       </c>
       <c r="S4">
-        <v>0.04372334033037981</v>
+        <v>0.09974293119332726</v>
       </c>
       <c r="T4">
-        <v>0.04372334033037981</v>
+        <v>0.09974293119332725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H5">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I5">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J5">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.02087694429888889</v>
+        <v>0.09634559770000002</v>
       </c>
       <c r="R5">
-        <v>0.18789249869</v>
+        <v>0.8671103793000001</v>
       </c>
       <c r="S5">
-        <v>0.0004673992269824653</v>
+        <v>0.001894932050097624</v>
       </c>
       <c r="T5">
-        <v>0.0004673992269824652</v>
+        <v>0.001894932050097624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.399987</v>
       </c>
       <c r="I6">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J6">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>0.50253966693</v>
+        <v>1.060669171576</v>
       </c>
       <c r="R6">
-        <v>4.522857002369999</v>
+        <v>9.546022544183998</v>
       </c>
       <c r="S6">
-        <v>0.01125100725893151</v>
+        <v>0.02086131650797635</v>
       </c>
       <c r="T6">
-        <v>0.0112510072589315</v>
+        <v>0.02086131650797634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.399987</v>
       </c>
       <c r="I7">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J7">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
         <v>10.99705636183</v>
       </c>
       <c r="R7">
-        <v>98.97350725646999</v>
+        <v>98.97350725647</v>
       </c>
       <c r="S7">
-        <v>0.2462053626725203</v>
+        <v>0.216290884630234</v>
       </c>
       <c r="T7">
-        <v>0.2462053626725203</v>
+        <v>0.216290884630234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.399987</v>
       </c>
       <c r="I8">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J8">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>7.129293445988</v>
+        <v>8.920106664889</v>
       </c>
       <c r="R8">
-        <v>64.16364101389199</v>
+        <v>80.280959984001</v>
       </c>
       <c r="S8">
-        <v>0.1596127382379084</v>
+        <v>0.1754412906567872</v>
       </c>
       <c r="T8">
-        <v>0.1596127382379084</v>
+        <v>0.1754412906567872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.399987</v>
       </c>
       <c r="I9">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J9">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>0.076211611931</v>
+        <v>0.1694656033</v>
       </c>
       <c r="R9">
-        <v>0.685904507379</v>
+        <v>1.5251904297</v>
       </c>
       <c r="S9">
-        <v>0.001706248193876384</v>
+        <v>0.003333061507202625</v>
       </c>
       <c r="T9">
-        <v>0.001706248193876383</v>
+        <v>0.003333061507202624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H10">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I10">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J10">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N10">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q10">
-        <v>0.4175071917299999</v>
+        <v>0.8864485979759998</v>
       </c>
       <c r="R10">
-        <v>3.75756472557</v>
+        <v>7.978037381784</v>
       </c>
       <c r="S10">
-        <v>0.00934727495942056</v>
+        <v>0.01743473390760672</v>
       </c>
       <c r="T10">
-        <v>0.00934727495942056</v>
+        <v>0.01743473390760672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H11">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I11">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J11">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
         <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P11">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q11">
-        <v>9.13629395063</v>
+        <v>9.19073114883</v>
       </c>
       <c r="R11">
-        <v>82.22664555566999</v>
+        <v>82.71658033947</v>
       </c>
       <c r="S11">
-        <v>0.2045460613810379</v>
+        <v>0.1807639522044142</v>
       </c>
       <c r="T11">
-        <v>0.2045460613810379</v>
+        <v>0.1807639522044142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H12">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I12">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J12">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N12">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O12">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P12">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q12">
-        <v>5.922977789668</v>
+        <v>7.454931526989</v>
       </c>
       <c r="R12">
-        <v>53.30680010701199</v>
+        <v>67.094383742901</v>
       </c>
       <c r="S12">
-        <v>0.1326053851890802</v>
+        <v>0.1466241221084321</v>
       </c>
       <c r="T12">
-        <v>0.1326053851890802</v>
+        <v>0.1466241221084321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H13">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I13">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J13">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N13">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q13">
-        <v>0.06331618809100001</v>
+        <v>0.1416299733</v>
       </c>
       <c r="R13">
-        <v>0.569845692819</v>
+        <v>1.2746697597</v>
       </c>
       <c r="S13">
-        <v>0.001417541616508735</v>
+        <v>0.002785588361767366</v>
       </c>
       <c r="T13">
-        <v>0.001417541616508735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.113271</v>
-      </c>
-      <c r="I14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.769169999999999</v>
-      </c>
-      <c r="N14">
-        <v>11.30751</v>
-      </c>
-      <c r="O14">
-        <v>0.02686645020528053</v>
-      </c>
-      <c r="P14">
-        <v>0.02686645020528053</v>
-      </c>
-      <c r="Q14">
-        <v>0.14231255169</v>
-      </c>
-      <c r="R14">
-        <v>1.28081296521</v>
-      </c>
-      <c r="S14">
-        <v>0.003186135657474944</v>
-      </c>
-      <c r="T14">
-        <v>0.003186135657474944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.113271</v>
-      </c>
-      <c r="I15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>82.48060333333332</v>
-      </c>
-      <c r="N15">
-        <v>247.44181</v>
-      </c>
-      <c r="O15">
-        <v>0.5879175050094569</v>
-      </c>
-      <c r="P15">
-        <v>0.5879175050094571</v>
-      </c>
-      <c r="Q15">
-        <v>3.114220140056667</v>
-      </c>
-      <c r="R15">
-        <v>28.02798126051</v>
-      </c>
-      <c r="S15">
-        <v>0.06972208505596193</v>
-      </c>
-      <c r="T15">
-        <v>0.06972208505596195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.113271</v>
-      </c>
-      <c r="I16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>53.47143866666666</v>
-      </c>
-      <c r="N16">
-        <v>160.414316</v>
-      </c>
-      <c r="O16">
-        <v>0.3811416689464024</v>
-      </c>
-      <c r="P16">
-        <v>0.3811416689464025</v>
-      </c>
-      <c r="Q16">
-        <v>2.018921109737334</v>
-      </c>
-      <c r="R16">
-        <v>18.170289987636</v>
-      </c>
-      <c r="S16">
-        <v>0.04520020518903397</v>
-      </c>
-      <c r="T16">
-        <v>0.04520020518903397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.113271</v>
-      </c>
-      <c r="I17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5716056666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.714817</v>
-      </c>
-      <c r="O17">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="P17">
-        <v>0.004074375838860062</v>
-      </c>
-      <c r="Q17">
-        <v>0.02158211515633334</v>
-      </c>
-      <c r="R17">
-        <v>0.194239036407</v>
-      </c>
-      <c r="S17">
-        <v>0.0004831868014924782</v>
-      </c>
-      <c r="T17">
-        <v>0.0004831868014924781</v>
+        <v>0.002785588361767366</v>
       </c>
     </row>
   </sheetData>
